--- a/longsor/v02-new/sample_longsor_anotasi_v02_new.xlsx
+++ b/longsor/v02-new/sample_longsor_anotasi_v02_new.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dharmapu\Documents\personal\ui\KA-AMSD_src\paper-submission\anotated_data\longsor\v02_new\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dharmapu\Documents\personal\ui\KA-AMSD_src\paper-submission\anotated_data\longsor\v02-new\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9152ED6F-0592-4FB7-9E9A-158818EFD524}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AC9A61F-4E86-4745-A791-C602FED60FEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7641" uniqueCount="3549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7641" uniqueCount="3548">
   <si>
     <t>id</t>
   </si>
@@ -10425,9 +10425,6 @@
     <t>Solok</t>
   </si>
   <si>
-    <t>Kabupaten Solok</t>
-  </si>
-  <si>
     <t>Jl. Padang - Solok</t>
   </si>
   <si>
@@ -10647,9 +10644,6 @@
     <t>2015-04-27</t>
   </si>
   <si>
-    <t>Air Terjdun Sedudo</t>
-  </si>
-  <si>
     <t>2015-07-21</t>
   </si>
   <si>
@@ -10681,6 +10675,9 @@
   </si>
   <si>
     <t>Desa Betok Jaya</t>
+  </si>
+  <si>
+    <t>Air Terjun Sedudo</t>
   </si>
 </sst>
 </file>
@@ -11883,8 +11880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N1308"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" topLeftCell="A1195" workbookViewId="0">
+      <selection activeCell="H1204" sqref="H1204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12533,7 +12530,7 @@
       <c r="M21" s="9"/>
       <c r="N21" s="12"/>
     </row>
-    <row r="22" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>53</v>
       </c>
@@ -14039,7 +14036,7 @@
       <c r="M73" s="9"/>
       <c r="N73" s="12"/>
     </row>
-    <row r="74" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
         <v>153</v>
       </c>
@@ -14077,7 +14074,7 @@
         <v>2587</v>
       </c>
     </row>
-    <row r="75" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
         <v>155</v>
       </c>
@@ -15079,7 +15076,7 @@
       <c r="M114" s="9"/>
       <c r="N114" s="12"/>
     </row>
-    <row r="115" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
         <v>233</v>
       </c>
@@ -15127,7 +15124,7 @@
       <c r="M116" s="9"/>
       <c r="N116" s="12"/>
     </row>
-    <row r="117" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
         <v>237</v>
       </c>
@@ -15213,7 +15210,7 @@
         <v>2605</v>
       </c>
     </row>
-    <row r="120" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A120" s="4" t="s">
         <v>243</v>
       </c>
@@ -15479,7 +15476,7 @@
         <v>2614</v>
       </c>
     </row>
-    <row r="130" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
         <v>262</v>
       </c>
@@ -17505,7 +17502,7 @@
       <c r="M198" s="9"/>
       <c r="N198" s="12"/>
     </row>
-    <row r="199" spans="1:14" ht="51" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A199" s="4" t="s">
         <v>359</v>
       </c>
@@ -18025,7 +18022,7 @@
         <v>2684</v>
       </c>
     </row>
-    <row r="218" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A218" s="4" t="s">
         <v>398</v>
       </c>
@@ -18375,7 +18372,7 @@
       <c r="M227" s="9"/>
       <c r="N227" s="12"/>
     </row>
-    <row r="228" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A228" s="4" t="s">
         <v>412</v>
       </c>
@@ -18423,7 +18420,7 @@
       <c r="M229" s="9"/>
       <c r="N229" s="12"/>
     </row>
-    <row r="230" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A230" s="4" t="s">
         <v>416</v>
       </c>
@@ -18463,7 +18460,7 @@
         <v>2702</v>
       </c>
     </row>
-    <row r="231" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A231" s="4" t="s">
         <v>418</v>
       </c>
@@ -18535,7 +18532,7 @@
       <c r="M233" s="9"/>
       <c r="N233" s="12"/>
     </row>
-    <row r="234" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A234" s="4" t="s">
         <v>424</v>
       </c>
@@ -19079,7 +19076,7 @@
       <c r="M253" s="9"/>
       <c r="N253" s="12"/>
     </row>
-    <row r="254" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A254" s="4" t="s">
         <v>461</v>
       </c>
@@ -19159,7 +19156,7 @@
         <v>2702</v>
       </c>
     </row>
-    <row r="256" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A256" s="4" t="s">
         <v>465</v>
       </c>
@@ -20365,7 +20362,7 @@
         <v>2498</v>
       </c>
     </row>
-    <row r="300" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A300" s="4" t="s">
         <v>554</v>
       </c>
@@ -23597,7 +23594,7 @@
       <c r="M406" s="9"/>
       <c r="N406" s="12"/>
     </row>
-    <row r="407" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A407" s="4" t="s">
         <v>749</v>
       </c>
@@ -24361,7 +24358,7 @@
       <c r="M436" s="9"/>
       <c r="N436" s="12"/>
     </row>
-    <row r="437" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A437" s="4" t="s">
         <v>811</v>
       </c>
@@ -24447,7 +24444,7 @@
       <c r="M439" s="9"/>
       <c r="N439" s="12"/>
     </row>
-    <row r="440" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A440" s="4" t="s">
         <v>817</v>
       </c>
@@ -24485,7 +24482,7 @@
         <v>2759</v>
       </c>
     </row>
-    <row r="441" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A441" s="4" t="s">
         <v>819</v>
       </c>
@@ -24781,7 +24778,7 @@
         <v>2899</v>
       </c>
     </row>
-    <row r="451" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A451" s="4" t="s">
         <v>840</v>
       </c>
@@ -25157,7 +25154,7 @@
       <c r="M462" s="9"/>
       <c r="N462" s="12"/>
     </row>
-    <row r="463" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A463" s="4" t="s">
         <v>864</v>
       </c>
@@ -25507,7 +25504,7 @@
       <c r="M474" s="9"/>
       <c r="N474" s="12"/>
     </row>
-    <row r="475" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A475" s="4" t="s">
         <v>885</v>
       </c>
@@ -25639,7 +25636,7 @@
       <c r="M479" s="9"/>
       <c r="N479" s="12"/>
     </row>
-    <row r="480" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A480" s="4" t="s">
         <v>895</v>
       </c>
@@ -25687,7 +25684,7 @@
       <c r="M481" s="9"/>
       <c r="N481" s="12"/>
     </row>
-    <row r="482" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A482" s="4" t="s">
         <v>899</v>
       </c>
@@ -25821,7 +25818,7 @@
       <c r="M486" s="9"/>
       <c r="N486" s="12"/>
     </row>
-    <row r="487" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A487" s="4" t="s">
         <v>909</v>
       </c>
@@ -26731,7 +26728,7 @@
       <c r="M516" s="9"/>
       <c r="N516" s="12"/>
     </row>
-    <row r="517" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A517" s="21" t="s">
         <v>967</v>
       </c>
@@ -28229,7 +28226,7 @@
       <c r="M570" s="9"/>
       <c r="N570" s="12"/>
     </row>
-    <row r="571" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A571" s="4" t="s">
         <v>1077</v>
       </c>
@@ -28807,7 +28804,7 @@
         <v>3020</v>
       </c>
       <c r="I592" s="9" t="s">
-        <v>3548</v>
+        <v>3546</v>
       </c>
       <c r="J592" s="9"/>
       <c r="K592" s="9"/>
@@ -29991,7 +29988,7 @@
       <c r="M634" s="9"/>
       <c r="N634" s="12"/>
     </row>
-    <row r="635" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A635" s="26" t="s">
         <v>1204</v>
       </c>
@@ -30029,7 +30026,7 @@
         <v>2561</v>
       </c>
     </row>
-    <row r="636" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A636" s="26" t="s">
         <v>1204</v>
       </c>
@@ -30129,7 +30126,7 @@
       <c r="M638" s="9"/>
       <c r="N638" s="12"/>
     </row>
-    <row r="639" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A639" s="4" t="s">
         <v>1210</v>
       </c>
@@ -30493,7 +30490,7 @@
         <v>2561</v>
       </c>
     </row>
-    <row r="650" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A650" s="26" t="s">
         <v>1225</v>
       </c>
@@ -30531,7 +30528,7 @@
         <v>2561</v>
       </c>
     </row>
-    <row r="651" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A651" s="26" t="s">
         <v>1225</v>
       </c>
@@ -32723,7 +32720,7 @@
       <c r="M730" s="9"/>
       <c r="N730" s="12"/>
     </row>
-    <row r="731" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A731" s="4" t="s">
         <v>1375</v>
       </c>
@@ -32819,7 +32816,7 @@
         <v>2730</v>
       </c>
     </row>
-    <row r="734" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A734" s="4" t="s">
         <v>1381</v>
       </c>
@@ -32921,7 +32918,7 @@
         <v>2702</v>
       </c>
     </row>
-    <row r="737" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A737" s="4" t="s">
         <v>1387</v>
       </c>
@@ -33067,7 +33064,7 @@
         <v>2605</v>
       </c>
     </row>
-    <row r="742" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A742" s="4" t="s">
         <v>1398</v>
       </c>
@@ -33139,7 +33136,7 @@
       <c r="M744" s="9"/>
       <c r="N744" s="12"/>
     </row>
-    <row r="745" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A745" s="4" t="s">
         <v>1404</v>
       </c>
@@ -33283,7 +33280,7 @@
       <c r="M750" s="9"/>
       <c r="N750" s="12"/>
     </row>
-    <row r="751" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A751" s="4" t="s">
         <v>1416</v>
       </c>
@@ -33685,7 +33682,7 @@
         <v>2730</v>
       </c>
     </row>
-    <row r="765" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A765" s="4" t="s">
         <v>1445</v>
       </c>
@@ -33865,7 +33862,7 @@
         <v>3170</v>
       </c>
     </row>
-    <row r="771" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A771" s="4" t="s">
         <v>1455</v>
       </c>
@@ -34069,7 +34066,7 @@
         <v>2730</v>
       </c>
     </row>
-    <row r="778" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A778" s="4" t="s">
         <v>1467</v>
       </c>
@@ -34107,7 +34104,7 @@
         <v>2561</v>
       </c>
     </row>
-    <row r="779" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A779" s="4" t="s">
         <v>1469</v>
       </c>
@@ -34167,7 +34164,7 @@
         <v>3177</v>
       </c>
     </row>
-    <row r="781" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A781" s="4" t="s">
         <v>1472</v>
       </c>
@@ -34229,7 +34226,7 @@
         <v>2561</v>
       </c>
     </row>
-    <row r="783" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A783" s="4" t="s">
         <v>1476</v>
       </c>
@@ -34277,7 +34274,7 @@
       <c r="M784" s="9"/>
       <c r="N784" s="12"/>
     </row>
-    <row r="785" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A785" s="4" t="s">
         <v>1481</v>
       </c>
@@ -34387,7 +34384,7 @@
       <c r="M788" s="9"/>
       <c r="N788" s="12"/>
     </row>
-    <row r="789" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A789" s="4" t="s">
         <v>1489</v>
       </c>
@@ -34969,7 +34966,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="811" spans="1:14" ht="51" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A811" s="4" t="s">
         <v>1530</v>
       </c>
@@ -35895,7 +35892,7 @@
         <v>3227</v>
       </c>
     </row>
-    <row r="843" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A843" s="4" t="s">
         <v>1578</v>
       </c>
@@ -36501,7 +36498,7 @@
       <c r="M866" s="9"/>
       <c r="N866" s="12"/>
     </row>
-    <row r="867" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A867" s="4" t="s">
         <v>1628</v>
       </c>
@@ -38725,7 +38722,7 @@
       <c r="M949" s="9"/>
       <c r="N949" s="12"/>
     </row>
-    <row r="950" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A950" s="4" t="s">
         <v>1796</v>
       </c>
@@ -40907,7 +40904,7 @@
       <c r="M1031" s="9"/>
       <c r="N1031" s="12"/>
     </row>
-    <row r="1032" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="1032" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1032" s="4" t="s">
         <v>1961</v>
       </c>
@@ -41063,7 +41060,7 @@
       <c r="M1037" s="9"/>
       <c r="N1037" s="12"/>
     </row>
-    <row r="1038" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="1038" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1038" s="4" t="s">
         <v>1974</v>
       </c>
@@ -41183,7 +41180,7 @@
       <c r="M1041" s="9"/>
       <c r="N1041" s="12"/>
     </row>
-    <row r="1042" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="1042" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1042" s="4" t="s">
         <v>1982</v>
       </c>
@@ -45573,20 +45570,20 @@
         <v>2924</v>
       </c>
       <c r="G1204" s="9" t="s">
-        <v>3462</v>
+        <v>3094</v>
       </c>
       <c r="H1204" s="9" t="s">
-        <v>3094</v>
+        <v>2497</v>
       </c>
       <c r="I1204" s="9" t="s">
-        <v>3464</v>
+        <v>3463</v>
       </c>
       <c r="J1204" s="9"/>
       <c r="K1204" s="9"/>
       <c r="L1204" s="9"/>
       <c r="M1204" s="9"/>
       <c r="N1204" s="12" t="s">
-        <v>3465</v>
+        <v>3464</v>
       </c>
     </row>
     <row r="1205" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
@@ -45612,17 +45609,17 @@
         <v>3462</v>
       </c>
       <c r="H1205" s="9" t="s">
+        <v>2497</v>
+      </c>
+      <c r="I1205" s="9" t="s">
         <v>3463</v>
-      </c>
-      <c r="I1205" s="9" t="s">
-        <v>3464</v>
       </c>
       <c r="J1205" s="9"/>
       <c r="K1205" s="9"/>
       <c r="L1205" s="9"/>
       <c r="M1205" s="9"/>
       <c r="N1205" s="12" t="s">
-        <v>3465</v>
+        <v>3464</v>
       </c>
     </row>
     <row r="1206" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
@@ -45663,19 +45660,19 @@
         <v>2486</v>
       </c>
       <c r="E1207" s="10" t="s">
-        <v>3469</v>
+        <v>3468</v>
       </c>
       <c r="F1207" s="9" t="s">
         <v>2924</v>
       </c>
       <c r="G1207" s="9" t="s">
+        <v>3465</v>
+      </c>
+      <c r="H1207" s="9" t="s">
         <v>3466</v>
       </c>
-      <c r="H1207" s="9" t="s">
+      <c r="I1207" s="9" t="s">
         <v>3467</v>
-      </c>
-      <c r="I1207" s="9" t="s">
-        <v>3468</v>
       </c>
       <c r="J1207" s="9"/>
       <c r="K1207" s="9"/>
@@ -45684,7 +45681,7 @@
         <v>12</v>
       </c>
       <c r="N1207" s="12" t="s">
-        <v>3470</v>
+        <v>3469</v>
       </c>
     </row>
     <row r="1208" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
@@ -45749,7 +45746,7 @@
         <v>2486</v>
       </c>
       <c r="E1210" s="10" t="s">
-        <v>3472</v>
+        <v>3471</v>
       </c>
       <c r="F1210" s="9" t="s">
         <v>2924</v>
@@ -45761,7 +45758,7 @@
         <v>3434</v>
       </c>
       <c r="I1210" s="9" t="s">
-        <v>3471</v>
+        <v>3470</v>
       </c>
       <c r="J1210" s="9"/>
       <c r="K1210" s="9"/>
@@ -45791,13 +45788,13 @@
         <v>2924</v>
       </c>
       <c r="G1211" s="9" t="s">
-        <v>3473</v>
+        <v>3472</v>
       </c>
       <c r="H1211" s="9" t="s">
         <v>2497</v>
       </c>
       <c r="I1211" s="9" t="s">
-        <v>3474</v>
+        <v>3473</v>
       </c>
       <c r="J1211" s="9"/>
       <c r="K1211" s="9"/>
@@ -45827,13 +45824,13 @@
         <v>2924</v>
       </c>
       <c r="G1212" s="9" t="s">
-        <v>3473</v>
+        <v>3472</v>
       </c>
       <c r="H1212" s="9" t="s">
         <v>2497</v>
       </c>
       <c r="I1212" s="9" t="s">
-        <v>3475</v>
+        <v>3474</v>
       </c>
       <c r="J1212" s="9"/>
       <c r="K1212" s="9"/>
@@ -45929,7 +45926,7 @@
         <v>2486</v>
       </c>
       <c r="E1216" s="10" t="s">
-        <v>3478</v>
+        <v>3477</v>
       </c>
       <c r="F1216" s="9" t="s">
         <v>2924</v>
@@ -45938,10 +45935,10 @@
         <v>3195</v>
       </c>
       <c r="H1216" s="9" t="s">
+        <v>3475</v>
+      </c>
+      <c r="I1216" s="9" t="s">
         <v>3476</v>
-      </c>
-      <c r="I1216" s="9" t="s">
-        <v>3477</v>
       </c>
       <c r="J1216" s="9"/>
       <c r="K1216" s="9"/>
@@ -45991,7 +45988,7 @@
         <v>2486</v>
       </c>
       <c r="E1218" s="10" t="s">
-        <v>3481</v>
+        <v>3480</v>
       </c>
       <c r="F1218" s="9" t="s">
         <v>2924</v>
@@ -46000,10 +45997,10 @@
         <v>3094</v>
       </c>
       <c r="H1218" s="9" t="s">
+        <v>3478</v>
+      </c>
+      <c r="I1218" s="9" t="s">
         <v>3479</v>
-      </c>
-      <c r="I1218" s="9" t="s">
-        <v>3480</v>
       </c>
       <c r="J1218" s="9"/>
       <c r="K1218" s="9"/>
@@ -46371,7 +46368,7 @@
         <v>3286</v>
       </c>
       <c r="G1233" s="9" t="s">
-        <v>3482</v>
+        <v>3481</v>
       </c>
       <c r="H1233" s="9" t="s">
         <v>3288</v>
@@ -46581,7 +46578,7 @@
         <v>2886</v>
       </c>
       <c r="I1241" s="9" t="s">
-        <v>3483</v>
+        <v>3482</v>
       </c>
       <c r="J1241" s="9">
         <v>4</v>
@@ -46709,13 +46706,13 @@
         <v>2720</v>
       </c>
       <c r="G1246" s="9" t="s">
+        <v>3483</v>
+      </c>
+      <c r="H1246" s="9" t="s">
         <v>3484</v>
       </c>
-      <c r="H1246" s="9" t="s">
+      <c r="I1246" s="9" t="s">
         <v>3485</v>
-      </c>
-      <c r="I1246" s="9" t="s">
-        <v>3486</v>
       </c>
       <c r="J1246" s="9">
         <v>1</v>
@@ -46728,7 +46725,7 @@
         <v>1</v>
       </c>
       <c r="N1246" s="12" t="s">
-        <v>3487</v>
+        <v>3486</v>
       </c>
     </row>
     <row r="1247" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
@@ -46941,19 +46938,19 @@
         <v>2486</v>
       </c>
       <c r="E1254" s="10" t="s">
-        <v>3491</v>
+        <v>3490</v>
       </c>
       <c r="F1254" s="9" t="s">
         <v>3286</v>
       </c>
       <c r="G1254" s="9" t="s">
+        <v>3487</v>
+      </c>
+      <c r="H1254" s="9" t="s">
         <v>3488</v>
       </c>
-      <c r="H1254" s="9" t="s">
+      <c r="I1254" s="9" t="s">
         <v>3489</v>
-      </c>
-      <c r="I1254" s="9" t="s">
-        <v>3490</v>
       </c>
       <c r="J1254" s="9"/>
       <c r="K1254" s="9"/>
@@ -46977,16 +46974,16 @@
         <v>2486</v>
       </c>
       <c r="E1255" s="10" t="s">
-        <v>3500</v>
+        <v>3499</v>
       </c>
       <c r="F1255" s="9" t="s">
         <v>3286</v>
       </c>
       <c r="G1255" s="9" t="s">
+        <v>3491</v>
+      </c>
+      <c r="H1255" s="9" t="s">
         <v>3492</v>
-      </c>
-      <c r="H1255" s="9" t="s">
-        <v>3493</v>
       </c>
       <c r="I1255" s="9" t="s">
         <v>2497</v>
@@ -47013,16 +47010,16 @@
         <v>2486</v>
       </c>
       <c r="E1256" s="10" t="s">
-        <v>3500</v>
+        <v>3499</v>
       </c>
       <c r="F1256" s="9" t="s">
         <v>3286</v>
       </c>
       <c r="G1256" s="9" t="s">
-        <v>3492</v>
+        <v>3491</v>
       </c>
       <c r="H1256" s="9" t="s">
-        <v>3494</v>
+        <v>3493</v>
       </c>
       <c r="I1256" s="9" t="s">
         <v>2497</v>
@@ -47049,16 +47046,16 @@
         <v>2486</v>
       </c>
       <c r="E1257" s="10" t="s">
-        <v>3500</v>
+        <v>3499</v>
       </c>
       <c r="F1257" s="9" t="s">
         <v>3286</v>
       </c>
       <c r="G1257" s="9" t="s">
-        <v>3492</v>
+        <v>3491</v>
       </c>
       <c r="H1257" s="9" t="s">
-        <v>3495</v>
+        <v>3494</v>
       </c>
       <c r="I1257" s="9" t="s">
         <v>2497</v>
@@ -47085,16 +47082,16 @@
         <v>2486</v>
       </c>
       <c r="E1258" s="10" t="s">
-        <v>3500</v>
+        <v>3499</v>
       </c>
       <c r="F1258" s="9" t="s">
         <v>3286</v>
       </c>
       <c r="G1258" s="9" t="s">
-        <v>3492</v>
+        <v>3491</v>
       </c>
       <c r="H1258" s="9" t="s">
-        <v>3496</v>
+        <v>3495</v>
       </c>
       <c r="I1258" s="9" t="s">
         <v>2497</v>
@@ -47121,16 +47118,16 @@
         <v>2486</v>
       </c>
       <c r="E1259" s="10" t="s">
-        <v>3500</v>
+        <v>3499</v>
       </c>
       <c r="F1259" s="9" t="s">
         <v>3286</v>
       </c>
       <c r="G1259" s="9" t="s">
-        <v>3492</v>
+        <v>3491</v>
       </c>
       <c r="H1259" s="9" t="s">
-        <v>3497</v>
+        <v>3496</v>
       </c>
       <c r="I1259" s="9" t="s">
         <v>2497</v>
@@ -47157,19 +47154,19 @@
         <v>2486</v>
       </c>
       <c r="E1260" s="10" t="s">
-        <v>3500</v>
+        <v>3499</v>
       </c>
       <c r="F1260" s="9" t="s">
         <v>3286</v>
       </c>
       <c r="G1260" s="9" t="s">
-        <v>3492</v>
+        <v>3491</v>
       </c>
       <c r="H1260" s="9" t="s">
-        <v>3489</v>
+        <v>3488</v>
       </c>
       <c r="I1260" s="9" t="s">
-        <v>3498</v>
+        <v>3497</v>
       </c>
       <c r="J1260" s="9"/>
       <c r="K1260" s="9"/>
@@ -47193,19 +47190,19 @@
         <v>2486</v>
       </c>
       <c r="E1261" s="10" t="s">
-        <v>3500</v>
+        <v>3499</v>
       </c>
       <c r="F1261" s="9" t="s">
         <v>3286</v>
       </c>
       <c r="G1261" s="9" t="s">
-        <v>3492</v>
+        <v>3491</v>
       </c>
       <c r="H1261" s="9" t="s">
-        <v>3489</v>
+        <v>3488</v>
       </c>
       <c r="I1261" s="9" t="s">
-        <v>3499</v>
+        <v>3498</v>
       </c>
       <c r="J1261" s="9"/>
       <c r="K1261" s="9"/>
@@ -47277,19 +47274,19 @@
         <v>2486</v>
       </c>
       <c r="E1264" s="10" t="s">
-        <v>3504</v>
+        <v>3503</v>
       </c>
       <c r="F1264" s="9" t="s">
         <v>3286</v>
       </c>
       <c r="G1264" s="9" t="s">
+        <v>3500</v>
+      </c>
+      <c r="H1264" s="9" t="s">
         <v>3501</v>
       </c>
-      <c r="H1264" s="9" t="s">
+      <c r="I1264" s="9" t="s">
         <v>3502</v>
-      </c>
-      <c r="I1264" s="9" t="s">
-        <v>3503</v>
       </c>
       <c r="J1264" s="9">
         <v>2</v>
@@ -47341,19 +47338,19 @@
         <v>2486</v>
       </c>
       <c r="E1266" s="10" t="s">
-        <v>3509</v>
+        <v>3508</v>
       </c>
       <c r="F1266" s="9" t="s">
+        <v>3504</v>
+      </c>
+      <c r="G1266" s="9" t="s">
         <v>3505</v>
       </c>
-      <c r="G1266" s="9" t="s">
+      <c r="H1266" s="9" t="s">
         <v>3506</v>
       </c>
-      <c r="H1266" s="9" t="s">
+      <c r="I1266" s="9" t="s">
         <v>3507</v>
-      </c>
-      <c r="I1266" s="9" t="s">
-        <v>3508</v>
       </c>
       <c r="J1266" s="9"/>
       <c r="K1266" s="9"/>
@@ -47425,7 +47422,7 @@
         <v>2486</v>
       </c>
       <c r="E1269" s="10" t="s">
-        <v>3512</v>
+        <v>3511</v>
       </c>
       <c r="F1269" s="9" t="s">
         <v>2510</v>
@@ -47434,10 +47431,10 @@
         <v>2511</v>
       </c>
       <c r="H1269" s="9" t="s">
+        <v>3509</v>
+      </c>
+      <c r="I1269" s="9" t="s">
         <v>3510</v>
-      </c>
-      <c r="I1269" s="9" t="s">
-        <v>3511</v>
       </c>
       <c r="J1269" s="9">
         <v>17</v>
@@ -47487,7 +47484,7 @@
         <v>2486</v>
       </c>
       <c r="E1271" s="10" t="s">
-        <v>3513</v>
+        <v>3512</v>
       </c>
       <c r="F1271" s="9" t="s">
         <v>2709</v>
@@ -47511,7 +47508,7 @@
         <v>2931</v>
       </c>
     </row>
-    <row r="1272" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="1272" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1272" s="4" t="s">
         <v>2411</v>
       </c>
@@ -47631,7 +47628,7 @@
       <c r="M1276" s="9"/>
       <c r="N1276" s="12"/>
     </row>
-    <row r="1277" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="1277" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1277" s="4" t="s">
         <v>2421</v>
       </c>
@@ -47789,29 +47786,29 @@
         <v>2486</v>
       </c>
       <c r="E1283" s="10" t="s">
-        <v>3517</v>
+        <v>3516</v>
       </c>
       <c r="F1283" s="9" t="s">
         <v>2510</v>
       </c>
       <c r="G1283" s="9" t="s">
+        <v>3513</v>
+      </c>
+      <c r="H1283" s="9" t="s">
         <v>3514</v>
       </c>
-      <c r="H1283" s="9" t="s">
+      <c r="I1283" s="9" t="s">
         <v>3515</v>
-      </c>
-      <c r="I1283" s="9" t="s">
-        <v>3516</v>
       </c>
       <c r="J1283" s="9"/>
       <c r="K1283" s="9"/>
       <c r="L1283" s="9"/>
       <c r="M1283" s="9"/>
       <c r="N1283" s="12" t="s">
-        <v>3518</v>
-      </c>
-    </row>
-    <row r="1284" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+        <v>3517</v>
+      </c>
+    </row>
+    <row r="1284" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1284" s="4" t="s">
         <v>2435</v>
       </c>
@@ -47855,13 +47852,13 @@
         <v>2510</v>
       </c>
       <c r="G1285" s="9" t="s">
+        <v>3518</v>
+      </c>
+      <c r="H1285" s="9" t="s">
         <v>3519</v>
       </c>
-      <c r="H1285" s="9" t="s">
+      <c r="I1285" s="9" t="s">
         <v>3520</v>
-      </c>
-      <c r="I1285" s="9" t="s">
-        <v>3521</v>
       </c>
       <c r="J1285" s="9"/>
       <c r="K1285" s="9"/>
@@ -47891,13 +47888,13 @@
         <v>2510</v>
       </c>
       <c r="G1286" s="9" t="s">
+        <v>3521</v>
+      </c>
+      <c r="H1286" s="9" t="s">
         <v>3522</v>
       </c>
-      <c r="H1286" s="9" t="s">
+      <c r="I1286" s="9" t="s">
         <v>3523</v>
-      </c>
-      <c r="I1286" s="9" t="s">
-        <v>3524</v>
       </c>
       <c r="J1286" s="9">
         <v>1</v>
@@ -47947,19 +47944,19 @@
         <v>2486</v>
       </c>
       <c r="E1288" s="10" t="s">
-        <v>3528</v>
+        <v>3527</v>
       </c>
       <c r="F1288" s="9" t="s">
         <v>2685</v>
       </c>
       <c r="G1288" s="9" t="s">
+        <v>3524</v>
+      </c>
+      <c r="H1288" s="9" t="s">
         <v>3525</v>
       </c>
-      <c r="H1288" s="9" t="s">
+      <c r="I1288" s="9" t="s">
         <v>3526</v>
-      </c>
-      <c r="I1288" s="9" t="s">
-        <v>3527</v>
       </c>
       <c r="J1288" s="9"/>
       <c r="K1288" s="9">
@@ -47970,7 +47967,7 @@
         <v>1</v>
       </c>
       <c r="N1288" s="12" t="s">
-        <v>3529</v>
+        <v>3528</v>
       </c>
     </row>
     <row r="1289" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
@@ -47987,16 +47984,16 @@
         <v>2486</v>
       </c>
       <c r="E1289" s="10" t="s">
-        <v>3532</v>
+        <v>3531</v>
       </c>
       <c r="F1289" s="9" t="s">
         <v>2720</v>
       </c>
       <c r="G1289" s="9" t="s">
+        <v>3529</v>
+      </c>
+      <c r="H1289" s="9" t="s">
         <v>3530</v>
-      </c>
-      <c r="H1289" s="9" t="s">
-        <v>3531</v>
       </c>
       <c r="I1289" s="9" t="s">
         <v>2497</v>
@@ -48006,7 +48003,7 @@
       <c r="L1289" s="9"/>
       <c r="M1289" s="9"/>
       <c r="N1289" s="12" t="s">
-        <v>3533</v>
+        <v>3532</v>
       </c>
     </row>
     <row r="1290" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
@@ -48071,7 +48068,7 @@
         <v>2486</v>
       </c>
       <c r="E1292" s="10" t="s">
-        <v>3536</v>
+        <v>3535</v>
       </c>
       <c r="F1292" s="9" t="s">
         <v>2720</v>
@@ -48080,10 +48077,10 @@
         <v>3260</v>
       </c>
       <c r="H1292" s="9" t="s">
+        <v>3533</v>
+      </c>
+      <c r="I1292" s="9" t="s">
         <v>3534</v>
-      </c>
-      <c r="I1292" s="9" t="s">
-        <v>3535</v>
       </c>
       <c r="J1292" s="9"/>
       <c r="K1292" s="9"/>
@@ -48119,7 +48116,7 @@
       <c r="M1293" s="9"/>
       <c r="N1293" s="12"/>
     </row>
-    <row r="1294" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="1294" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1294" s="4" t="s">
         <v>2456</v>
       </c>
@@ -48205,7 +48202,7 @@
         <v>2486</v>
       </c>
       <c r="E1297" s="10" t="s">
-        <v>3538</v>
+        <v>3536</v>
       </c>
       <c r="F1297" s="9" t="s">
         <v>2720</v>
@@ -48217,7 +48214,7 @@
         <v>2497</v>
       </c>
       <c r="I1297" s="9" t="s">
-        <v>3537</v>
+        <v>3547</v>
       </c>
       <c r="J1297" s="9">
         <v>1</v>
@@ -48291,19 +48288,19 @@
         <v>2486</v>
       </c>
       <c r="E1300" s="10" t="s">
-        <v>3542</v>
+        <v>3540</v>
       </c>
       <c r="F1300" s="9" t="s">
         <v>2720</v>
       </c>
       <c r="G1300" s="9" t="s">
+        <v>3537</v>
+      </c>
+      <c r="H1300" s="9" t="s">
+        <v>3538</v>
+      </c>
+      <c r="I1300" s="9" t="s">
         <v>3539</v>
-      </c>
-      <c r="H1300" s="9" t="s">
-        <v>3540</v>
-      </c>
-      <c r="I1300" s="9" t="s">
-        <v>3541</v>
       </c>
       <c r="J1300" s="9"/>
       <c r="K1300" s="9"/>
@@ -48353,26 +48350,26 @@
         <v>2486</v>
       </c>
       <c r="E1302" s="10" t="s">
-        <v>3546</v>
+        <v>3544</v>
       </c>
       <c r="F1302" s="9" t="s">
         <v>2720</v>
       </c>
       <c r="G1302" s="9" t="s">
+        <v>3541</v>
+      </c>
+      <c r="H1302" s="9" t="s">
+        <v>3542</v>
+      </c>
+      <c r="I1302" s="9" t="s">
         <v>3543</v>
-      </c>
-      <c r="H1302" s="9" t="s">
-        <v>3544</v>
-      </c>
-      <c r="I1302" s="9" t="s">
-        <v>3545</v>
       </c>
       <c r="J1302" s="9"/>
       <c r="K1302" s="9"/>
       <c r="L1302" s="9"/>
       <c r="M1302" s="9"/>
       <c r="N1302" s="12" t="s">
-        <v>3547</v>
+        <v>3545</v>
       </c>
     </row>
     <row r="1303" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
@@ -48399,7 +48396,7 @@
       <c r="M1303" s="9"/>
       <c r="N1303" s="12"/>
     </row>
-    <row r="1304" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="1304" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1304" s="4" t="s">
         <v>2476</v>
       </c>
@@ -48423,7 +48420,7 @@
       <c r="M1304" s="9"/>
       <c r="N1304" s="12"/>
     </row>
-    <row r="1305" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="1305" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1305" s="4" t="s">
         <v>2478</v>
       </c>
